--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5641.968500000001</v>
+        <v>4978.75</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5490.19275</v>
+        <v>4881.803465346536</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5406.366</v>
+        <v>4806.189603960396</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5371.681</v>
+        <v>4777.004455445544</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5318.97625</v>
+        <v>4817.022277227723</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5408.019749999999</v>
+        <v>4993.585148514851</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5902.232</v>
+        <v>5791.976732673267</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7337.83225</v>
+        <v>6508.679702970297</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8426.187000000002</v>
+        <v>8013.319306930694</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13930.83825</v>
+        <v>13327.75396039604</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15876.8085</v>
+        <v>14912.39801980198</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15790.39175</v>
+        <v>14866.84603960396</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15707.13375</v>
+        <v>15166.13415841584</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15725.78525</v>
+        <v>15342.26732673267</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15851.95675</v>
+        <v>15647.49851485148</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16175.89925</v>
+        <v>15775.31782178218</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16564.009</v>
+        <v>16246.4004950495</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16344.52925</v>
+        <v>15938.57376237624</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15734.6105</v>
+        <v>15549.6094059406</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13838.8285</v>
+        <v>13984.29504950495</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12297.75575</v>
+        <v>12412.51089108911</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9867.945500000002</v>
+        <v>9434.527227722774</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6893.563249999999</v>
+        <v>6390.105940594059</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6008.644249999999</v>
+        <v>5462.339108910891</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4978.75</v>
+        <v>5373.441499999999</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4881.803465346536</v>
+        <v>5250.357</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4806.189603960396</v>
+        <v>5171.886999999999</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4777.004455445544</v>
+        <v>5107.980499999999</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4817.022277227723</v>
+        <v>5104.393</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4993.585148514851</v>
+        <v>5230.476999999999</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5791.976732673267</v>
+        <v>5902.879499999999</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6508.679702970297</v>
+        <v>7037.001999999999</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8013.319306930694</v>
+        <v>8592.440500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13327.75396039604</v>
+        <v>14095.0215</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14912.39801980198</v>
+        <v>15828.8445</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14866.84603960396</v>
+        <v>15449.287</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15166.13415841584</v>
+        <v>15803.2595</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15342.26732673267</v>
+        <v>15862.028</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15647.49851485148</v>
+        <v>16032.3205</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15775.31782178218</v>
+        <v>16559.4275</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16246.4004950495</v>
+        <v>16683.57249999999</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15938.57376237624</v>
+        <v>16252.82049999999</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15549.6094059406</v>
+        <v>15546.958</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13984.29504950495</v>
+        <v>13748.4165</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12412.51089108911</v>
+        <v>12030.7215</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9434.527227722774</v>
+        <v>9319.645999999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6390.105940594059</v>
+        <v>6308.333499999995</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5462.339108910891</v>
+        <v>5687.261999999999</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5373.441499999999</v>
+        <v>5181.7654555205</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5250.357</v>
+        <v>5107.462723152999</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5171.886999999999</v>
+        <v>5078.246477696</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5107.980499999999</v>
+        <v>5023.9429180395</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5104.393</v>
+        <v>5058.781000903</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5230.476999999999</v>
+        <v>5188.476321084</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5902.879499999999</v>
+        <v>5625.926671169</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7037.001999999999</v>
+        <v>6893.515125000001</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8592.440500000001</v>
+        <v>8247.303470000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14095.0215</v>
+        <v>13588.08752</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15828.8445</v>
+        <v>15423.293375</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15449.287</v>
+        <v>15250.37885</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15803.2595</v>
+        <v>15267.201915</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15862.028</v>
+        <v>15408.354465</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16032.3205</v>
+        <v>15584.637845</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16559.4275</v>
+        <v>15990.745715</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16683.57249999999</v>
+        <v>16606.740675</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16252.82049999999</v>
+        <v>15895.788545</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15546.958</v>
+        <v>15110.141865</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13748.4165</v>
+        <v>13483.21114</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12030.7215</v>
+        <v>11726.835785</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9319.645999999999</v>
+        <v>9147.03167</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6308.333499999995</v>
+        <v>6514.02934</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5687.261999999999</v>
+        <v>5694.991050000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5181.7654555205</v>
+        <v>5569.423999999999</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5107.462723152999</v>
+        <v>5443.025</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5078.246477696</v>
+        <v>5335.7675</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5023.9429180395</v>
+        <v>5326.111</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5058.781000903</v>
+        <v>5353.5615</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5188.476321084</v>
+        <v>5400.717</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5625.926671169</v>
+        <v>5986.228500000001</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6893.515125000001</v>
+        <v>6774.907999999999</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8247.303470000001</v>
+        <v>8159.217500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13588.08752</v>
+        <v>13111.5495</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15423.293375</v>
+        <v>15041.6385</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15250.37885</v>
+        <v>15360.8175</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15267.201915</v>
+        <v>15438.7275</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15408.354465</v>
+        <v>15496.474</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15584.637845</v>
+        <v>15736.574</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15990.745715</v>
+        <v>16203.3305</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16606.740675</v>
+        <v>16035.0225</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15895.788545</v>
+        <v>15489.1135</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15110.141865</v>
+        <v>15075.4555</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13483.21114</v>
+        <v>13277.7365</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11726.835785</v>
+        <v>11738.566</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9147.03167</v>
+        <v>8937.529999999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6514.02934</v>
+        <v>5960.1675</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5694.991050000001</v>
+        <v>5052.110000000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5569.423999999999</v>
+        <v>5444.512500000001</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5443.025</v>
+        <v>5387.3435</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5335.7675</v>
+        <v>5357.2225</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5326.111</v>
+        <v>5289.154500000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5353.5615</v>
+        <v>5361.8285</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5400.717</v>
+        <v>5442.6015</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5986.228500000001</v>
+        <v>5816.530999999999</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6774.907999999999</v>
+        <v>7034.6115</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8159.217500000001</v>
+        <v>8596.6895</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13111.5495</v>
+        <v>13942.873</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15041.6385</v>
+        <v>15769.3095</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15360.8175</v>
+        <v>15209.229</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15438.7275</v>
+        <v>15159.795</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15496.474</v>
+        <v>15449.4445</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15736.574</v>
+        <v>15588.433</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16203.3305</v>
+        <v>16020.6585</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16035.0225</v>
+        <v>16262.3825</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15489.1135</v>
+        <v>15862.609</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15075.4555</v>
+        <v>14887.418</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13277.7365</v>
+        <v>13341.0375</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11738.566</v>
+        <v>11837.672</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>8937.529999999999</v>
+        <v>9490.991999999998</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5960.1675</v>
+        <v>6891.794</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5052.110000000001</v>
+        <v>5770.9715</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5444.512500000001</v>
+        <v>5281.5630294</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5387.3435</v>
+        <v>5219.513573399999</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5357.2225</v>
+        <v>5215.409715599999</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5289.154500000001</v>
+        <v>5203.961154000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5361.8285</v>
+        <v>5197.191791400001</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5442.6015</v>
+        <v>5340.65931</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5816.530999999999</v>
+        <v>5690.484966600001</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7034.6115</v>
+        <v>7243.272603</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8596.6895</v>
+        <v>8810.345451599998</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13942.873</v>
+        <v>13845.818</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15769.3095</v>
+        <v>15425.6935</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15209.229</v>
+        <v>15935.46969</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15159.795</v>
+        <v>15980.34459</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15449.4445</v>
+        <v>16006.18068</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15588.433</v>
+        <v>16129.67055</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16020.6585</v>
+        <v>16259.57571</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16262.3825</v>
+        <v>16450.07448</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15862.609</v>
+        <v>16258.20126</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>14887.418</v>
+        <v>15318.55227</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13341.0375</v>
+        <v>13705.95114</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11837.672</v>
+        <v>12047.14707</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9490.991999999998</v>
+        <v>9638.00397</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6891.794</v>
+        <v>6839.395290000001</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5770.9715</v>
+        <v>5959.954350000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5281.5630294</v>
+        <v>5623.7055</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5219.513573399999</v>
+        <v>5458.229</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5215.409715599999</v>
+        <v>5507.9745</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5203.961154000001</v>
+        <v>5475.498</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5197.191791400001</v>
+        <v>5469.52</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5340.65931</v>
+        <v>5575.703</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5690.484966600001</v>
+        <v>6141.8735</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7243.272603</v>
+        <v>7163.6355</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8810.345451599998</v>
+        <v>8647.460500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13845.818</v>
+        <v>12435.7905</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15425.6935</v>
+        <v>15471.022</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15935.46969</v>
+        <v>16384.8475</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15980.34459</v>
+        <v>16062.228</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16006.18068</v>
+        <v>16185.204</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16129.67055</v>
+        <v>16525.544</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16259.57571</v>
+        <v>16462.6175</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16450.07448</v>
+        <v>16761.7275</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16258.20126</v>
+        <v>16532.1625</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15318.55227</v>
+        <v>15890.3885</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13705.95114</v>
+        <v>13683.775</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12047.14707</v>
+        <v>11966.283</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9638.00397</v>
+        <v>9398.494000000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6839.395290000001</v>
+        <v>6574.9635</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5959.954350000001</v>
+        <v>5831.934499999999</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5623.7055</v>
+        <v>5581.919</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5458.229</v>
+        <v>5396.9405</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5507.9745</v>
+        <v>5495.0525</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5475.498</v>
+        <v>5434.544500000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5469.52</v>
+        <v>5428.478999999999</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5575.703</v>
+        <v>5521.411</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6141.8735</v>
+        <v>5848.6295</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7163.6355</v>
+        <v>7409.1955</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8647.460500000001</v>
+        <v>8747.119500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12435.7905</v>
+        <v>13859.2475</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15471.022</v>
+        <v>15630.083</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16384.8475</v>
+        <v>15508.171</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16062.228</v>
+        <v>15504.7795</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16185.204</v>
+        <v>15740.2385</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16525.544</v>
+        <v>15821.344</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16462.6175</v>
+        <v>15962.3415</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16761.7275</v>
+        <v>16427.5545</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16532.1625</v>
+        <v>16271.78</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15890.3885</v>
+        <v>15553.594</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13683.775</v>
+        <v>13684.776</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11966.283</v>
+        <v>12055.652</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9398.494000000001</v>
+        <v>9556.389499999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6574.9635</v>
+        <v>6528.8335</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5831.934499999999</v>
+        <v>5841.465</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5581.919</v>
+        <v>5403.181792229516</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5396.9405</v>
+        <v>5278.963850951805</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5495.0525</v>
+        <v>5184.064927655845</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5434.544500000001</v>
+        <v>5136.549907955236</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5428.478999999999</v>
+        <v>5129.7719337361</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5521.411</v>
+        <v>5143.13849224455</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5848.6295</v>
+        <v>5818.040433500224</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7409.1955</v>
+        <v>6499.70213840486</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8747.119500000001</v>
+        <v>7901.680536594761</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13859.2475</v>
+        <v>13514.69019060903</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15630.083</v>
+        <v>15633.91644990992</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15508.171</v>
+        <v>15567.09641022996</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15504.7795</v>
+        <v>15766.55339272752</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15740.2385</v>
+        <v>15912.72896354587</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15821.344</v>
+        <v>16136.85567434339</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15962.3415</v>
+        <v>16644.07866334462</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16427.5545</v>
+        <v>16694.97483924541</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16271.78</v>
+        <v>16392.60347814709</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15553.594</v>
+        <v>15677.69035636025</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13684.776</v>
+        <v>14143.01405219119</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12055.652</v>
+        <v>12333.28142343908</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9556.389499999999</v>
+        <v>9480.206819321584</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6528.8335</v>
+        <v>6243.876406472426</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5841.465</v>
+        <v>5337.237675511805</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5403.181792229516</v>
+        <v>5689.726000000001</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5278.963850951805</v>
+        <v>5531.9635</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5184.064927655845</v>
+        <v>5582.9375</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5136.549907955236</v>
+        <v>5518.562</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5129.7719337361</v>
+        <v>5473.3875</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5143.13849224455</v>
+        <v>5589.052</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5818.040433500224</v>
+        <v>6206.172</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6499.70213840486</v>
+        <v>7243.6665</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7901.680536594761</v>
+        <v>8885.4745</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13514.69019060903</v>
+        <v>13767.1835</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15633.91644990992</v>
+        <v>16394.5425</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15567.09641022996</v>
+        <v>16601.9735</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15766.55339272752</v>
+        <v>16136.57733333333</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15912.72896354587</v>
+        <v>16181.1125</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16136.85567434339</v>
+        <v>16478.651</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16644.07866334462</v>
+        <v>16626.0535</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16694.97483924541</v>
+        <v>16821.924</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16392.60347814709</v>
+        <v>16713.2315</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15677.69035636025</v>
+        <v>16263.632</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14143.01405219119</v>
+        <v>13980.50966666666</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12333.28142343908</v>
+        <v>12278.59266666667</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9480.206819321584</v>
+        <v>9696.488666666666</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6243.876406472426</v>
+        <v>6635.017666666667</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5337.237675511805</v>
+        <v>6040.419000000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5689.726000000001</v>
+        <v>5367.6475</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5531.9635</v>
+        <v>5238.613499999999</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5582.9375</v>
+        <v>5194.5815</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5518.562</v>
+        <v>5174.980500000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5473.3875</v>
+        <v>5228.214</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5589.052</v>
+        <v>5465.2305</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6206.172</v>
+        <v>6478.023</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7243.6665</v>
+        <v>7287.380499999999</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8885.4745</v>
+        <v>9017.842499999999</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13767.1835</v>
+        <v>14472.567</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16394.5425</v>
+        <v>16357.7465</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16601.9735</v>
+        <v>16558.8255</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16136.57733333333</v>
+        <v>16733.4465</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16181.1125</v>
+        <v>16967.0395</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16478.651</v>
+        <v>16689.1605</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16626.0535</v>
+        <v>16402.6835</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16821.924</v>
+        <v>16404.992</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16713.2315</v>
+        <v>16482.6715</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16263.632</v>
+        <v>16346.816</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13980.50966666666</v>
+        <v>14102.174</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12278.59266666667</v>
+        <v>12417.102</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9696.488666666666</v>
+        <v>9745.787</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6635.017666666667</v>
+        <v>6739.6595</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6040.419000000001</v>
+        <v>5949.048500000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5367.6475</v>
+        <v>5554.7135</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5238.613499999999</v>
+        <v>5359.343500000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5194.5815</v>
+        <v>5311.7505</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5174.980500000001</v>
+        <v>5299.952</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5228.214</v>
+        <v>5293.1515</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5465.2305</v>
+        <v>5324.76</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6478.023</v>
+        <v>6198.4755</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7287.380499999999</v>
+        <v>6632.370499999999</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9017.842499999999</v>
+        <v>7985.929</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14472.567</v>
+        <v>13162.0615</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16357.7465</v>
+        <v>15499.911</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16558.8255</v>
+        <v>15978.718</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16733.4465</v>
+        <v>15949.85</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16967.0395</v>
+        <v>16112.4845</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16689.1605</v>
+        <v>16701.4645</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16402.6835</v>
+        <v>16519.7305</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16404.992</v>
+        <v>16574.537</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16482.6715</v>
+        <v>16188.1545</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16346.816</v>
+        <v>15598.3275</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14102.174</v>
+        <v>14119.9695</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12417.102</v>
+        <v>12189.1525</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9745.787</v>
+        <v>9406.733</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6739.6595</v>
+        <v>6502.2755</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5949.048500000001</v>
+        <v>5603.15</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5554.7135</v>
+        <v>5516.6335</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5359.343500000001</v>
+        <v>5387.312</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5311.7505</v>
+        <v>5339.824000000001</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5299.952</v>
+        <v>5306.819000000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5293.1515</v>
+        <v>5338.83</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5324.76</v>
+        <v>5422.714499999999</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6198.4755</v>
+        <v>5875.107</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6632.370499999999</v>
+        <v>7214.4275</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7985.929</v>
+        <v>8467.018</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13162.0615</v>
+        <v>13640.6165</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15499.911</v>
+        <v>15763.02</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15978.718</v>
+        <v>15072.0395</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15949.85</v>
+        <v>15259.6675</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16112.4845</v>
+        <v>15815.744</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16701.4645</v>
+        <v>15955.3275</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16519.7305</v>
+        <v>16114.0735</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16574.537</v>
+        <v>16384.389</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16188.1545</v>
+        <v>15932.637</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15598.3275</v>
+        <v>15036.9065</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14119.9695</v>
+        <v>13330.5025</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12189.1525</v>
+        <v>11770.8115</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9406.733</v>
+        <v>9312.075499999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6502.2755</v>
+        <v>6773.7985</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5603.15</v>
+        <v>5542.130999999999</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5516.6335</v>
+        <v>5539.9085</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5387.312</v>
+        <v>5343.505999999999</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5339.824000000001</v>
+        <v>5250.640500000001</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5306.819000000001</v>
+        <v>5194.129499999999</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5338.83</v>
+        <v>5143.397</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5422.714499999999</v>
+        <v>5188.8305</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5875.107</v>
+        <v>5628.136500000001</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7214.4275</v>
+        <v>6549.074000000001</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8467.018</v>
+        <v>7809.641</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13640.6165</v>
+        <v>12977.8705</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15763.02</v>
+        <v>14879.494</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15072.0395</v>
+        <v>15334.284</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15259.6675</v>
+        <v>15538.4565</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15815.744</v>
+        <v>15473.9585</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15955.3275</v>
+        <v>15459.3285</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16114.0735</v>
+        <v>15733.5675</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16384.389</v>
+        <v>15999.228</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15932.637</v>
+        <v>15687.07</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15036.9065</v>
+        <v>15318.933</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13330.5025</v>
+        <v>13434.6415</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11770.8115</v>
+        <v>11609.815</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9312.075499999999</v>
+        <v>9103.451000000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6773.7985</v>
+        <v>6290.4415</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5542.130999999999</v>
+        <v>5217.8665</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5539.9085</v>
+        <v>5632.2595</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5343.505999999999</v>
+        <v>5478.844000000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5250.640500000001</v>
+        <v>5431.737499999999</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5194.129499999999</v>
+        <v>5351.2935</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5143.397</v>
+        <v>5443.7565</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5188.8305</v>
+        <v>5521.645500000001</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5628.136500000001</v>
+        <v>6568.996000000001</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6549.074000000001</v>
+        <v>7039.0705</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7809.641</v>
+        <v>8768.984</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12977.8705</v>
+        <v>14287.7385</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14879.494</v>
+        <v>16203.32</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15334.284</v>
+        <v>16253.0025</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15538.4565</v>
+        <v>16193.9575</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15473.9585</v>
+        <v>16307.025</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15459.3285</v>
+        <v>16253.9055</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15733.5675</v>
+        <v>15667.071</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>15999.228</v>
+        <v>16597.392</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15687.07</v>
+        <v>16121.5775</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15318.933</v>
+        <v>15277.878</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13434.6415</v>
+        <v>13983.214</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11609.815</v>
+        <v>12008.9865</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9103.451000000001</v>
+        <v>9648.002000000002</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6290.4415</v>
+        <v>6756.816500000001</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5217.8665</v>
+        <v>6005.93</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5632.2595</v>
+        <v>5416.988499999999</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5478.844000000001</v>
+        <v>5210.142</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5431.737499999999</v>
+        <v>5131.699999999999</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5351.2935</v>
+        <v>5049.197999999999</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5443.7565</v>
+        <v>5084.9925</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5521.645500000001</v>
+        <v>5380.1055</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6568.996000000001</v>
+        <v>6413.1515</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7039.0705</v>
+        <v>7207.8405</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8768.984</v>
+        <v>9489.200000000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14287.7385</v>
+        <v>14318.1885</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16203.32</v>
+        <v>15340.192</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16253.0025</v>
+        <v>15589.8715</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16193.9575</v>
+        <v>15359.3685</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16307.025</v>
+        <v>15511.44</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16253.9055</v>
+        <v>15666.4375</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15667.071</v>
+        <v>16125.417</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16597.392</v>
+        <v>16406.873</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16121.5775</v>
+        <v>16163.1645</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15277.878</v>
+        <v>15659.7175</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13983.214</v>
+        <v>13764.5865</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12008.9865</v>
+        <v>11506.208</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9648.002000000002</v>
+        <v>8102.793999999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6756.816500000001</v>
+        <v>6308.112999999999</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6005.93</v>
+        <v>5711.482</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5416.988499999999</v>
+        <v>5329.484653465346</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5210.142</v>
+        <v>5259.706435643564</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5131.699999999999</v>
+        <v>5163.882673267326</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5049.197999999999</v>
+        <v>5112.713366336634</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5084.9925</v>
+        <v>5106.558910891089</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5380.1055</v>
+        <v>5300.365346534654</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6413.1515</v>
+        <v>6379.10693069307</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7207.8405</v>
+        <v>7216.65693069307</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9489.200000000001</v>
+        <v>8943.754455445545</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14318.1885</v>
+        <v>13673.303</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15340.192</v>
+        <v>15596.091</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15589.8715</v>
+        <v>15591.495745</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15359.3685</v>
+        <v>15952.581855</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15511.44</v>
+        <v>15967.63035</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15666.4375</v>
+        <v>16122.537585</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16125.417</v>
+        <v>16685.267165</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16406.873</v>
+        <v>16903.41555</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16163.1645</v>
+        <v>16563.521765</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15659.7175</v>
+        <v>16239.09007</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13764.5865</v>
+        <v>14649.071815</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11506.208</v>
+        <v>12459.301925</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>8102.793999999999</v>
+        <v>9926.142135</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6308.112999999999</v>
+        <v>6827.198525000001</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5711.482</v>
+        <v>6013.597064999999</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5329.484653465346</v>
+        <v>5731.74</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5259.706435643564</v>
+        <v>5526.115</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5163.882673267326</v>
+        <v>5390.847</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5112.713366336634</v>
+        <v>5356.008</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5106.558910891089</v>
+        <v>5438.279</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5300.365346534654</v>
+        <v>5565.175</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6379.10693069307</v>
+        <v>6573.994000000001</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7216.65693069307</v>
+        <v>7376.026</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8943.754455445545</v>
+        <v>8830.576999999997</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13673.303</v>
+        <v>13925.926</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15596.091</v>
+        <v>16103.297</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15591.495745</v>
+        <v>15849.1235</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15952.581855</v>
+        <v>15935.9585</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15967.63035</v>
+        <v>15893.2095</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16122.537585</v>
+        <v>16461.3505</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16685.267165</v>
+        <v>16893.7965</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16903.41555</v>
+        <v>16943.689</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16563.521765</v>
+        <v>15829.6355</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16239.09007</v>
+        <v>15704.7975</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14649.071815</v>
+        <v>14246.386</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12459.301925</v>
+        <v>11999.0745</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9926.142135</v>
+        <v>9654.239000000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6827.198525000001</v>
+        <v>6915.5555</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6013.597064999999</v>
+        <v>5962.4075</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5731.74</v>
+        <v>4944.292321154038</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5526.115</v>
+        <v>4887.559847582665</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5390.847</v>
+        <v>4825.545484664752</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5356.008</v>
+        <v>4794.057447783162</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5438.279</v>
+        <v>4794.010622970725</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5565.175</v>
+        <v>4890.506649537315</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6573.994000000001</v>
+        <v>5267.449152182856</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7376.026</v>
+        <v>6573.678702600464</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8830.576999999997</v>
+        <v>8191.789500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13925.926</v>
+        <v>14018.138</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16103.297</v>
+        <v>14986.9245</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15849.1235</v>
+        <v>14980.626</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15935.9585</v>
+        <v>15169.25375</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15893.2095</v>
+        <v>15666.69225</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16461.3505</v>
+        <v>15813.73925</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16893.7965</v>
+        <v>16092.652</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16943.689</v>
+        <v>16268.66525</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15829.6355</v>
+        <v>16049.11175</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15704.7975</v>
+        <v>14955.2725</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14246.386</v>
+        <v>13776.544</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11999.0745</v>
+        <v>12164.7975</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9654.239000000001</v>
+        <v>9625.974749999999</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6915.5555</v>
+        <v>6491.415499999999</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5962.4075</v>
+        <v>5924.492750000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4944.292321154038</v>
+        <v>5694.447073155357</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4887.559847582665</v>
+        <v>5603.598815434763</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4825.545484664752</v>
+        <v>5504.439695743004</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4794.057447783162</v>
+        <v>5434.829198104781</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4794.010622970725</v>
+        <v>5477.095567269553</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4890.506649537315</v>
+        <v>5780.126988954585</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5267.449152182856</v>
+        <v>6039.323408975071</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6573.678702600464</v>
+        <v>6818.027790699687</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8191.789500000001</v>
+        <v>8312.497000000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14018.138</v>
+        <v>14224.088055</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14986.9245</v>
+        <v>14992.3235</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14980.626</v>
+        <v>15133.654</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15169.25375</v>
+        <v>14810.5425</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15666.69225</v>
+        <v>14968.454</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15813.73925</v>
+        <v>15674.209</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16092.652</v>
+        <v>16353.4195</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16268.66525</v>
+        <v>16764.4865</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16049.11175</v>
+        <v>16629.4945</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>14955.2725</v>
+        <v>16025.2325</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13776.544</v>
+        <v>14539.505</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12164.7975</v>
+        <v>12603.773</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9625.974749999999</v>
+        <v>9665.7935</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6491.415499999999</v>
+        <v>6367.0695</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5924.492750000001</v>
+        <v>5794.098</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5694.447073155357</v>
+        <v>5801.188</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5603.598815434763</v>
+        <v>5641.719000000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5504.439695743004</v>
+        <v>5541.0945</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5434.829198104781</v>
+        <v>5516.280000000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5477.095567269553</v>
+        <v>5497.001</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5780.126988954585</v>
+        <v>5761.397999999999</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6039.323408975071</v>
+        <v>6103.384</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6818.027790699687</v>
+        <v>6908.593</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8312.497000000001</v>
+        <v>8421.428500000002</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14224.088055</v>
+        <v>14998.9355</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14992.3235</v>
+        <v>14970.028</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15133.654</v>
+        <v>15231.207</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14810.5425</v>
+        <v>15435.473</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14968.454</v>
+        <v>15934.069</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15674.209</v>
+        <v>16001.6455</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16353.4195</v>
+        <v>16435.614</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16764.4865</v>
+        <v>17178.1825</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16629.4945</v>
+        <v>16939.003</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16025.2325</v>
+        <v>16685.8825</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14539.505</v>
+        <v>15197.4365</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12603.773</v>
+        <v>13342.395</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9665.7935</v>
+        <v>9716.890500000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6367.0695</v>
+        <v>6391.799999999999</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5794.098</v>
+        <v>5848.197</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5801.188</v>
+        <v>5005.48337366473</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5641.719000000001</v>
+        <v>4922.298456099087</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5541.0945</v>
+        <v>4850.625419333438</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5516.280000000001</v>
+        <v>4797.274898040722</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5497.001</v>
+        <v>4859.095012476347</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5761.397999999999</v>
+        <v>4960.889853826959</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6103.384</v>
+        <v>5211.449593293681</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6908.593</v>
+        <v>6049.649550323782</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8421.428500000002</v>
+        <v>8417.127547097272</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14998.9355</v>
+        <v>13902.175</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14970.028</v>
+        <v>15210.828</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15231.207</v>
+        <v>15097.205</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15435.473</v>
+        <v>14468.754</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15934.069</v>
+        <v>14615.9345</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16001.6455</v>
+        <v>15642.9465</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16435.614</v>
+        <v>15864.0115</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>17178.1825</v>
+        <v>16275.092</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16939.003</v>
+        <v>16265.2175</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16685.8825</v>
+        <v>15390.046</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>15197.4365</v>
+        <v>13874.261</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>13342.395</v>
+        <v>11951.5345</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9716.890500000001</v>
+        <v>9041.0965</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6391.799999999999</v>
+        <v>6150.5125</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5848.197</v>
+        <v>5731.305</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5005.48337366473</v>
+        <v>5801.188</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4922.298456099087</v>
+        <v>5641.719000000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4850.625419333438</v>
+        <v>5541.0945</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4797.274898040722</v>
+        <v>5516.280000000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4859.095012476347</v>
+        <v>5497.001</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4960.889853826959</v>
+        <v>5761.397999999999</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5211.449593293681</v>
+        <v>6103.384</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6049.649550323782</v>
+        <v>6908.593</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8417.127547097272</v>
+        <v>8421.428500000002</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13902.175</v>
+        <v>14998.9355</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15210.828</v>
+        <v>14970.028</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15097.205</v>
+        <v>15231.207</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14468.754</v>
+        <v>15435.473</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14615.9345</v>
+        <v>15934.069</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15642.9465</v>
+        <v>16001.6455</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15864.0115</v>
+        <v>16435.614</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16275.092</v>
+        <v>17178.1825</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16265.2175</v>
+        <v>16939.003</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15390.046</v>
+        <v>16685.8825</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13874.261</v>
+        <v>15197.4365</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11951.5345</v>
+        <v>13342.395</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9041.0965</v>
+        <v>9716.890500000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6150.5125</v>
+        <v>6391.799999999999</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5731.305</v>
+        <v>5848.197</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5801.188</v>
+        <v>5597.0385765805</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5641.719000000001</v>
+        <v>5427.810091879</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5541.0945</v>
+        <v>5378.673491737501</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5516.280000000001</v>
+        <v>5348.731399226001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5497.001</v>
+        <v>5372.321170922</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5761.397999999999</v>
+        <v>5496.759895401</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6103.384</v>
+        <v>6441.069913339</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6908.593</v>
+        <v>7184.668538918501</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8421.428500000002</v>
+        <v>8465.353500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14998.9355</v>
+        <v>14333.5385</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14970.028</v>
+        <v>15915.495</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15231.207</v>
+        <v>15771.6165</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15435.473</v>
+        <v>15824.06</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15934.069</v>
+        <v>15963.6205</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16001.6455</v>
+        <v>16132.936</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16435.614</v>
+        <v>16102.835</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>17178.1825</v>
+        <v>16787.6375</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16939.003</v>
+        <v>16403.816</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16685.8825</v>
+        <v>16006.496</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>15197.4365</v>
+        <v>14046.071</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>13342.395</v>
+        <v>11183.005</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9716.890500000001</v>
+        <v>9240.505000000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6391.799999999999</v>
+        <v>6857.7675</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5848.197</v>
+        <v>6096.6435</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5597.0385765805</v>
+        <v>5799.800999999999</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5427.810091879</v>
+        <v>5649.136500000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5378.673491737501</v>
+        <v>5554.8325</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5348.731399226001</v>
+        <v>5481.98</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5372.321170922</v>
+        <v>5456.8815</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5496.759895401</v>
+        <v>5512.395</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6441.069913339</v>
+        <v>5765.477227722772</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7184.668538918501</v>
+        <v>6519.4465</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8465.353500000001</v>
+        <v>7901.5895</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14333.5385</v>
+        <v>13052.0005</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15915.495</v>
+        <v>14886.7985</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15771.6165</v>
+        <v>14810.005</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15824.06</v>
+        <v>14699.3385</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15963.6205</v>
+        <v>15357.636</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16132.936</v>
+        <v>15432.207</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16102.835</v>
+        <v>15338.9075</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16787.6375</v>
+        <v>15792.80217625723</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16403.816</v>
+        <v>15557.50171551809</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16006.496</v>
+        <v>15152.49877462994</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14046.071</v>
+        <v>13812.90902852661</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11183.005</v>
+        <v>12007.84432898735</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9240.505000000001</v>
+        <v>9523.143</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6857.7675</v>
+        <v>6375.7855</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6096.6435</v>
+        <v>5494.996500000001</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5799.800999999999</v>
+        <v>5597.0385765805</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5649.136500000001</v>
+        <v>5427.810091879</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5554.8325</v>
+        <v>5378.673491737501</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5481.98</v>
+        <v>5348.731399226001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5456.8815</v>
+        <v>5372.321170922</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5512.395</v>
+        <v>5496.759895401</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5765.477227722772</v>
+        <v>6441.069913339</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6519.4465</v>
+        <v>7184.668538918501</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7901.5895</v>
+        <v>8465.353500000001</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13052.0005</v>
+        <v>14333.5385</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14886.7985</v>
+        <v>15915.495</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14810.005</v>
+        <v>15771.6165</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14699.3385</v>
+        <v>15824.06</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15357.636</v>
+        <v>15963.6205</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15432.207</v>
+        <v>16132.936</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15338.9075</v>
+        <v>16102.835</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>15792.80217625723</v>
+        <v>16787.6375</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15557.50171551809</v>
+        <v>16403.816</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15152.49877462994</v>
+        <v>16006.496</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13812.90902852661</v>
+        <v>14046.071</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12007.84432898735</v>
+        <v>11183.005</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9523.143</v>
+        <v>9240.505000000001</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6375.7855</v>
+        <v>6857.7675</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5494.996500000001</v>
+        <v>6096.6435</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5597.0385765805</v>
+        <v>5345.119500000001</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5427.810091879</v>
+        <v>5206.159000000001</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5378.673491737501</v>
+        <v>5135.557000000001</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5348.731399226001</v>
+        <v>5020.333500000001</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5372.321170922</v>
+        <v>5000.597</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5496.759895401</v>
+        <v>5159.224</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6441.069913339</v>
+        <v>5913.0995</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7184.668538918501</v>
+        <v>6556.798500000001</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8465.353500000001</v>
+        <v>7870.904999999999</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14333.5385</v>
+        <v>13169.898</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15915.495</v>
+        <v>15125.579</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15771.6165</v>
+        <v>14795.5535</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15824.06</v>
+        <v>15027.4215</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15963.6205</v>
+        <v>15238.5275</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16132.936</v>
+        <v>15218.588</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16102.835</v>
+        <v>15079.778</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>16787.6375</v>
+        <v>15600.9735</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>16403.816</v>
+        <v>15471.0605</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>16006.496</v>
+        <v>15033.3155</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>14046.071</v>
+        <v>13476.9705</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11183.005</v>
+        <v>11646.733</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9240.505000000001</v>
+        <v>9235.5095</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6857.7675</v>
+        <v>6356.336</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>6096.6435</v>
+        <v>5313.4375</v>
       </c>
     </row>
   </sheetData>

--- a/contestable_energy.xlsx
+++ b/contestable_energy.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5345.119500000001</v>
+        <v>5300.240519268225</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5206.159000000001</v>
+        <v>5231.744084870154</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5135.557000000001</v>
+        <v>5172.964514112086</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5020.333500000001</v>
+        <v>5075.946323680449</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5000.597</v>
+        <v>5154.323713302019</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5159.224</v>
+        <v>5316.20017362459</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5913.0995</v>
+        <v>6026.937022946369</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6556.798500000001</v>
+        <v>7195.731826323759</v>
       </c>
     </row>
     <row r="10">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7870.904999999999</v>
+        <v>8933.125360504302</v>
       </c>
     </row>
     <row r="11">
@@ -510,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13169.898</v>
+        <v>14753.13129895921</v>
       </c>
     </row>
     <row r="12">
@@ -518,7 +518,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15125.579</v>
+        <v>15709.74841693614</v>
       </c>
     </row>
     <row r="13">
@@ -526,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14795.5535</v>
+        <v>15288.48267560654</v>
       </c>
     </row>
     <row r="14">
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15027.4215</v>
+        <v>15654.78597751751</v>
       </c>
     </row>
     <row r="15">
@@ -542,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15238.5275</v>
+        <v>15297.69344373566</v>
       </c>
     </row>
     <row r="16">
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15218.588</v>
+        <v>15177.95255693069</v>
       </c>
     </row>
     <row r="17">
@@ -558,7 +558,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15079.778</v>
+        <v>15377.06720297029</v>
       </c>
     </row>
     <row r="18">
@@ -566,7 +566,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>15600.9735</v>
+        <v>15674.89670937682</v>
       </c>
     </row>
     <row r="19">
@@ -574,7 +574,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>15471.0605</v>
+        <v>15609.91385653271</v>
       </c>
     </row>
     <row r="20">
@@ -582,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>15033.3155</v>
+        <v>14847.04867986798</v>
       </c>
     </row>
     <row r="21">
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>13476.9705</v>
+        <v>13458.84194331198</v>
       </c>
     </row>
     <row r="22">
@@ -598,7 +598,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>11646.733</v>
+        <v>11737.29170064065</v>
       </c>
     </row>
     <row r="23">
@@ -606,7 +606,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9235.5095</v>
+        <v>8464.465734808773</v>
       </c>
     </row>
     <row r="24">
@@ -614,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>6356.336</v>
+        <v>6243.212205882352</v>
       </c>
     </row>
     <row r="25">
@@ -622,7 +622,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>5313.4375</v>
+        <v>5717.465749999999</v>
       </c>
     </row>
   </sheetData>
